--- a/resources/example_sds_dataset/manifest.xlsx
+++ b/resources/example_sds_dataset/manifest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_1/1-001.dcm</t>
+          <t>primary/sub-1/sam-1/1-001.dcm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_1</t>
+          <t>File of subject sub-1 sample sam-1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -486,22 +486,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_1/1-002.dcm</t>
+          <t>primary/sub-1/sam-1/1-002.dcm</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_1</t>
+          <t>File of subject sub-1 sample sam-1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -509,22 +509,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_1/1-003.dcm</t>
+          <t>primary/sub-1/sam-1/1-003.dcm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_1</t>
+          <t>File of subject sub-1 sample sam-1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -532,22 +532,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_1/1-004.dcm</t>
+          <t>primary/sub-1/sam-1/1-004.dcm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_1</t>
+          <t>File of subject sub-1 sample sam-1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -555,22 +555,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_2/1-001.dcm</t>
+          <t>primary/sub-1/sam-2/1-001.dcm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_2</t>
+          <t>File of subject sub-1 sample sam-2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -578,22 +578,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_2/1-002.dcm</t>
+          <t>primary/sub-1/sam-2/1-002.dcm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_2</t>
+          <t>File of subject sub-1 sample sam-2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -601,22 +601,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_2/1-003.dcm</t>
+          <t>primary/sub-1/sam-2/1-003.dcm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_2</t>
+          <t>File of subject sub-1 sample sam-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -624,22 +624,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_2/1-004.dcm</t>
+          <t>primary/sub-1/sam-2/1-004.dcm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_2</t>
+          <t>File of subject sub-1 sample sam-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -647,22 +647,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_3/1-01.dcm</t>
+          <t>primary/sub-2/sam-1/1-01.dcm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_3</t>
+          <t>File of subject sub-2 sample sam-1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -670,22 +670,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_3/1-02.dcm</t>
+          <t>primary/sub-2/sam-1/1-02.dcm</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_3</t>
+          <t>File of subject sub-2 sample sam-1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -693,22 +693,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_3/1-03.dcm</t>
+          <t>primary/sub-2/sam-1/1-03.dcm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_3</t>
+          <t>File of subject sub-2 sample sam-1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -716,22 +716,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_3/1-04.dcm</t>
+          <t>primary/sub-2/sam-1/1-04.dcm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_3</t>
+          <t>File of subject sub-2 sample sam-1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -739,22 +739,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_4/1-001.dcm</t>
+          <t>primary/sub-2/sam-2/1-001.dcm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_4</t>
+          <t>File of subject sub-2 sample sam-2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -762,22 +762,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_4/1-002.dcm</t>
+          <t>primary/sub-2/sam-2/1-002.dcm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_4</t>
+          <t>File of subject sub-2 sample sam-2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -785,22 +785,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_4/1-003.dcm</t>
+          <t>primary/sub-2/sam-2/1-003.dcm</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_4</t>
+          <t>File of subject sub-2 sample sam-2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -808,22 +808,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>primary/sub-1/sam-sample_data_4/1-004.dcm</t>
+          <t>primary/sub-2/sam-2/1-004.dcm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>File of subject sub-1 sample sam-sample_data_4</t>
+          <t>File of subject sub-2 sample sam-2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>.dcm</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -831,22 +831,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>primary/sub-3/sam-sample_data_1/1-01.dcm</t>
+          <t>docs/thumbnail_0.jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>File of subject sub-3 sample sam-sample_data_1</t>
+          <t>This is a thumbnail file</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -854,393 +854,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>primary/sub-3/sam-sample_data_1/1-02.dcm</t>
+          <t>docs/thumbnail_1.jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-09-14 06:05:11</t>
+          <t>2023-09-19 23:09:25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>File of subject sub-3 sample sam-sample_data_1</t>
+          <t>This is a thumbnail file</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>dcm</t>
+          <t>jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>primary/sub-3/sam-sample_data_1/1-03.dcm</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>File of subject sub-3 sample sam-sample_data_1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>primary/sub-3/sam-sample_data_1/1-04.dcm</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>File of subject sub-3 sample sam-sample_data_1</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>primary/sub-3/sam-sample_data_1/1-05.dcm</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>File of subject sub-3 sample sam-sample_data_1</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-1/1-01.dcm</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-1</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-1/1-02.dcm</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-1</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-1/1-03.dcm</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-1</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-1/1-04.dcm</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-2/1-001.dcm</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-2</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-2/1-002.dcm</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-2/1-003.dcm</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-2</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-2/1-004.dcm</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-2</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-3/1-001.dcm</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-3</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-3/1-002.dcm</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-3</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-3/1-003.dcm</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-3</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>primary/sub-2/sam-3/1-004.dcm</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>File of subject sub-2 sample sam-3</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>dcm</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>docs/thumbnail_1.jpg</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-09-14 06:05:12</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>This is a thumbnail file</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>jpg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
